--- a/output/article/Supp-mat4_model_param_abund_10000.xlsx
+++ b/output/article/Supp-mat4_model_param_abund_10000.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t xml:space="preserve">Code species</t>
   </si>
@@ -32,6 +32,9 @@
     <t xml:space="preserve">CV abundance</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bala_acu</t>
   </si>
   <si>
@@ -44,21 +47,36 @@
     <t xml:space="preserve">oceanic</t>
   </si>
   <si>
+    <t xml:space="preserve">Pike et al 2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">shelf</t>
   </si>
   <si>
     <t xml:space="preserve">Northeast Atlantic</t>
   </si>
   <si>
+    <t xml:space="preserve">Hammond et al 2021, Rogan et al 2018</t>
+  </si>
+  <si>
     <t xml:space="preserve">Northwest Atlantic</t>
   </si>
   <si>
+    <t xml:space="preserve">Palka 2012</t>
+  </si>
+  <si>
     <t xml:space="preserve">California current</t>
   </si>
   <si>
+    <t xml:space="preserve">Barlow 2010</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hawaii</t>
   </si>
   <si>
+    <t xml:space="preserve">Bradford et al 2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bala_bor</t>
   </si>
   <si>
@@ -74,6 +92,9 @@
     <t xml:space="preserve">Gulf of Mexico</t>
   </si>
   <si>
+    <t xml:space="preserve">Garrison et al 2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bala_mus</t>
   </si>
   <si>
@@ -83,6 +104,9 @@
     <t xml:space="preserve">Gulf of Alaska</t>
   </si>
   <si>
+    <t xml:space="preserve">Rone et al 2017</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bala_phy</t>
   </si>
   <si>
@@ -92,6 +116,9 @@
     <t xml:space="preserve">Mediterranean Sea</t>
   </si>
   <si>
+    <t xml:space="preserve">Panigada et al 2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bera_bai</t>
   </si>
   <si>
@@ -125,13 +152,25 @@
     <t xml:space="preserve">French Antilles</t>
   </si>
   <si>
+    <t xml:space="preserve">Van Canneyt et al 2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">West Indian ocean</t>
   </si>
   <si>
+    <t xml:space="preserve">Laran et al 2017</t>
+  </si>
+  <si>
     <t xml:space="preserve">French Polynesia</t>
   </si>
   <si>
+    <t xml:space="preserve">Laran et al 2012</t>
+  </si>
+  <si>
     <t xml:space="preserve">New Caledonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laran et al 2016</t>
   </si>
   <si>
     <t xml:space="preserve">Wallis &amp; Futuna</t>
@@ -656,19 +695,22 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
         <v>20216</v>
@@ -676,19 +718,22 @@
       <c r="F2" t="n">
         <v>0.427170799470343</v>
       </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
         <v>22298</v>
@@ -696,19 +741,22 @@
       <c r="F3" t="n">
         <v>0.362702498609532</v>
       </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
         <v>2235</v>
@@ -716,19 +764,22 @@
       <c r="F4" t="n">
         <v>0.417020943169666</v>
       </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
         <v>18630</v>
@@ -736,19 +787,22 @@
       <c r="F5" t="n">
         <v>0.186380335171258</v>
       </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
         <v>53</v>
@@ -756,19 +810,22 @@
       <c r="F6" t="n">
         <v>0.73</v>
       </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
         <v>2538</v>
@@ -776,19 +833,22 @@
       <c r="F7" t="n">
         <v>0.87</v>
       </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
         <v>478</v>
@@ -796,19 +856,22 @@
       <c r="F8" t="n">
         <v>1.36</v>
       </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
         <v>438</v>
@@ -816,19 +879,22 @@
       <c r="F9" t="n">
         <v>1.05</v>
       </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
         <v>3767</v>
@@ -836,19 +902,22 @@
       <c r="F10" t="n">
         <v>0.517038977395278</v>
       </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
         <v>212</v>
@@ -856,19 +925,22 @@
       <c r="F11" t="n">
         <v>0.54</v>
       </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
         <v>145</v>
@@ -876,19 +948,22 @@
       <c r="F12" t="n">
         <v>1</v>
       </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
         <v>126</v>
@@ -896,19 +971,22 @@
       <c r="F13" t="n">
         <v>0.53</v>
       </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
         <v>51</v>
@@ -916,19 +994,22 @@
       <c r="F14" t="n">
         <v>0.503</v>
       </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
         <v>296</v>
@@ -936,19 +1017,22 @@
       <c r="F15" t="n">
         <v>0.506098303075422</v>
       </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
         <v>63</v>
@@ -956,19 +1040,22 @@
       <c r="F16" t="n">
         <v>0.76</v>
       </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
         <v>1466</v>
@@ -976,19 +1063,22 @@
       <c r="F17" t="n">
         <v>0.366260723820229</v>
       </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E18" t="n">
         <v>1535</v>
@@ -996,19 +1086,22 @@
       <c r="F18" t="n">
         <v>0.58</v>
       </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="n">
         <v>565</v>
@@ -1016,19 +1109,22 @@
       <c r="F19" t="n">
         <v>0.18</v>
       </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="n">
         <v>1612</v>
@@ -1036,19 +1132,22 @@
       <c r="F20" t="n">
         <v>0.155204981558699</v>
       </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E21" t="n">
         <v>1556</v>
@@ -1056,19 +1155,22 @@
       <c r="F21" t="n">
         <v>0.48</v>
       </c>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="n">
         <v>1509</v>
@@ -1076,19 +1178,22 @@
       <c r="F22" t="n">
         <v>0.251716001347427</v>
       </c>
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E23" t="n">
         <v>65</v>
@@ -1096,19 +1201,22 @@
       <c r="F23" t="n">
         <v>0.920985750681616</v>
       </c>
+      <c r="G23" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="n">
         <v>33081</v>
@@ -1116,19 +1224,22 @@
       <c r="F24" t="n">
         <v>0.181790120361589</v>
       </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E25" t="n">
         <v>3692</v>
@@ -1136,19 +1247,22 @@
       <c r="F25" t="n">
         <v>0.321952188594285</v>
       </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="n">
         <v>27322</v>
@@ -1156,19 +1270,22 @@
       <c r="F26" t="n">
         <v>0.142342661961255</v>
       </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E27" t="n">
         <v>65</v>
@@ -1176,19 +1293,22 @@
       <c r="F27" t="n">
         <v>0.608393805152488</v>
       </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="n">
         <v>1178</v>
@@ -1196,19 +1316,22 @@
       <c r="F28" t="n">
         <v>0.4</v>
       </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E29" t="n">
         <v>417</v>
@@ -1216,19 +1339,22 @@
       <c r="F29" t="n">
         <v>0.56</v>
       </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="n">
         <v>3044</v>
@@ -1236,19 +1362,22 @@
       <c r="F30" t="n">
         <v>0.18</v>
       </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="n">
         <v>203</v>
@@ -1256,19 +1385,22 @@
       <c r="F31" t="n">
         <v>0.99</v>
       </c>
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="n">
         <v>1497.19607843137</v>
@@ -1276,19 +1408,22 @@
       <c r="F32" t="n">
         <v>0.495367305989622</v>
       </c>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="n">
         <v>27313.2974789916</v>
@@ -1296,19 +1431,22 @@
       <c r="F33" t="n">
         <v>0.584923602578037</v>
       </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="n">
         <v>5049.59641255605</v>
@@ -1316,19 +1454,22 @@
       <c r="F34" t="n">
         <v>1.08667550478905</v>
       </c>
+      <c r="G34" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E35" t="n">
         <v>43992.7272727273</v>
@@ -1336,19 +1477,22 @@
       <c r="F35" t="n">
         <v>0.595206614464142</v>
       </c>
+      <c r="G35" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="n">
         <v>255947.223021583</v>
@@ -1356,19 +1500,22 @@
       <c r="F36" t="n">
         <v>0.441085831876345</v>
       </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E37" t="n">
         <v>399509.61302682</v>
@@ -1376,19 +1523,22 @@
       <c r="F37" t="n">
         <v>0.113692315234016</v>
       </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="n">
         <v>64336</v>
@@ -1396,19 +1546,22 @@
       <c r="F38" t="n">
         <v>0.276345643708575</v>
       </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E39" t="n">
         <v>2855</v>
@@ -1416,19 +1569,22 @@
       <c r="F39" t="n">
         <v>0.33</v>
       </c>
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="n">
         <v>417060.702521008</v>
@@ -1436,19 +1592,22 @@
       <c r="F40" t="n">
         <v>0.207239302630949</v>
       </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="n">
         <v>613</v>
@@ -1456,19 +1615,22 @@
       <c r="F41" t="n">
         <v>1.15</v>
       </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="n">
         <v>10328</v>
@@ -1476,19 +1638,22 @@
       <c r="F42" t="n">
         <v>0.75</v>
       </c>
+      <c r="G42" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="n">
         <v>86</v>
@@ -1496,19 +1661,22 @@
       <c r="F43" t="n">
         <v>1.6503488372093</v>
       </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E44" t="n">
         <v>2615</v>
@@ -1516,19 +1684,22 @@
       <c r="F44" t="n">
         <v>0.72595602295302</v>
       </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="n">
         <v>1321</v>
@@ -1536,19 +1707,22 @@
       <c r="F45" t="n">
         <v>0.43</v>
       </c>
+      <c r="G45" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="n">
         <v>12215</v>
@@ -1556,19 +1730,22 @@
       <c r="F46" t="n">
         <v>0.48781793148634</v>
       </c>
+      <c r="G46" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="n">
         <v>760</v>
@@ -1576,19 +1753,22 @@
       <c r="F47" t="n">
         <v>0.64</v>
       </c>
+      <c r="G47" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="n">
         <v>7102</v>
@@ -1596,19 +1776,22 @@
       <c r="F48" t="n">
         <v>0.227671164869655</v>
       </c>
+      <c r="G48" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="n">
         <v>7956</v>
@@ -1616,19 +1799,22 @@
       <c r="F49" t="n">
         <v>0.59</v>
       </c>
+      <c r="G49" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="n">
         <v>9091</v>
@@ -1636,19 +1822,22 @@
       <c r="F50" t="n">
         <v>0.322603501082397</v>
       </c>
+      <c r="G50" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="n">
         <v>465</v>
@@ -1656,19 +1845,22 @@
       <c r="F51" t="n">
         <v>0.856202529844653</v>
       </c>
+      <c r="G51" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="n">
         <v>4903</v>
@@ -1676,19 +1868,22 @@
       <c r="F52" t="n">
         <v>0.468385836942678</v>
       </c>
+      <c r="G52" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E53" t="n">
         <v>198</v>
@@ -1696,19 +1891,22 @@
       <c r="F53" t="n">
         <v>1.0132</v>
       </c>
+      <c r="G53" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="n">
         <v>241192</v>
@@ -1716,19 +1914,22 @@
       <c r="F54" t="n">
         <v>0.425704365883269</v>
       </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E55" t="n">
         <v>102956</v>
@@ -1736,19 +1937,22 @@
       <c r="F55" t="n">
         <v>0.349561299681377</v>
       </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="n">
         <v>26725</v>
@@ -1756,19 +1960,22 @@
       <c r="F56" t="n">
         <v>0.28342037156281</v>
       </c>
+      <c r="G56" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E57" t="n">
         <v>9441</v>
@@ -1776,19 +1983,22 @@
       <c r="F57" t="n">
         <v>0.353300411182381</v>
       </c>
+      <c r="G57" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="n">
         <v>11865</v>
@@ -1796,19 +2006,22 @@
       <c r="F58" t="n">
         <v>0.532838899612268</v>
       </c>
+      <c r="G58" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E59" t="n">
         <v>305</v>
@@ -1816,19 +2029,22 @@
       <c r="F59" t="n">
         <v>0.919562542782537</v>
       </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="n">
         <v>1973</v>
@@ -1836,19 +2052,22 @@
       <c r="F60" t="n">
         <v>0.456</v>
       </c>
+      <c r="G60" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="n">
         <v>126</v>
@@ -1856,19 +2075,22 @@
       <c r="F61" t="n">
         <v>0.943053550971524</v>
       </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E62" t="n">
         <v>398</v>
@@ -1876,19 +2098,22 @@
       <c r="F62" t="n">
         <v>0.844199181387569</v>
       </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C63" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="n">
         <v>17116</v>
@@ -1896,19 +2121,22 @@
       <c r="F63" t="n">
         <v>0.277701397088749</v>
       </c>
+      <c r="G63" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C64" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="n">
         <v>21903</v>
@@ -1916,19 +2144,22 @@
       <c r="F64" t="n">
         <v>0.320438752074345</v>
       </c>
+      <c r="G64" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C65" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E65" t="n">
         <v>3163</v>
@@ -1936,19 +2167,22 @@
       <c r="F65" t="n">
         <v>0.413050176392015</v>
       </c>
+      <c r="G65" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="n">
         <v>2939</v>
@@ -1956,19 +2190,22 @@
       <c r="F66" t="n">
         <v>0.703457292080334</v>
       </c>
+      <c r="G66" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B67" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E67" t="n">
         <v>13275</v>
@@ -1976,19 +2213,22 @@
       <c r="F67" t="n">
         <v>0.427658844538112</v>
       </c>
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B68" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="n">
         <v>15197</v>
@@ -1996,19 +2236,22 @@
       <c r="F68" t="n">
         <v>0.525575553559901</v>
       </c>
+      <c r="G68" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="n">
         <v>6272</v>
@@ -2016,19 +2259,22 @@
       <c r="F69" t="n">
         <v>0.3</v>
       </c>
+      <c r="G69" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B70" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C70" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="n">
         <v>8079</v>
@@ -2036,19 +2282,22 @@
       <c r="F70" t="n">
         <v>0.225645312270051</v>
       </c>
+      <c r="G70" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B71" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="n">
         <v>6245</v>
@@ -2056,19 +2305,22 @@
       <c r="F71" t="n">
         <v>0.5</v>
       </c>
+      <c r="G71" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B72" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C72" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="n">
         <v>7005</v>
@@ -2076,19 +2328,22 @@
       <c r="F72" t="n">
         <v>0.51</v>
       </c>
+      <c r="G72" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B73" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C73" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="n">
         <v>1188</v>
@@ -2096,19 +2351,22 @@
       <c r="F73" t="n">
         <v>0.5</v>
       </c>
+      <c r="G73" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B74" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="n">
         <v>17197</v>
@@ -2116,19 +2374,22 @@
       <c r="F74" t="n">
         <v>0.645756744265028</v>
       </c>
+      <c r="G74" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B75" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E75" t="n">
         <v>2777</v>
@@ -2136,19 +2397,22 @@
       <c r="F75" t="n">
         <v>0.9</v>
       </c>
+      <c r="G75" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B76" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E76" t="n">
         <v>611</v>
@@ -2156,19 +2420,22 @@
       <c r="F76" t="n">
         <v>0.523502515947977</v>
       </c>
+      <c r="G76" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C77" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="n">
         <v>211</v>
@@ -2176,19 +2443,22 @@
       <c r="F77" t="n">
         <v>462.90159406218</v>
       </c>
+      <c r="G77" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B78" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="n">
         <v>2944.81081081081</v>
@@ -2196,19 +2466,22 @@
       <c r="F78" t="n">
         <v>0.595140172723917</v>
       </c>
+      <c r="G78" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B79" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C79" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="n">
         <v>551</v>
@@ -2216,19 +2489,22 @@
       <c r="F79" t="n">
         <v>0.589685250587778</v>
       </c>
+      <c r="G79" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B80" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C80" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="n">
         <v>281</v>
@@ -2236,19 +2512,22 @@
       <c r="F80" t="n">
         <v>0.554732504335075</v>
       </c>
+      <c r="G80" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B81" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C81" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="n">
         <v>286</v>
@@ -2256,19 +2535,22 @@
       <c r="F81" t="n">
         <v>0.59</v>
       </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B82" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C82" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E82" t="n">
         <v>327</v>
@@ -2276,19 +2558,22 @@
       <c r="F82" t="n">
         <v>0.476868815348591</v>
       </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B83" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="n">
         <v>336</v>
@@ -2296,19 +2581,22 @@
       <c r="F83" t="n">
         <v>0.346</v>
       </c>
+      <c r="G83" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B84" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C84" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="n">
         <v>275</v>
@@ -2316,19 +2604,22 @@
       <c r="F84" t="n">
         <v>0.64</v>
       </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B85" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C85" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E85" t="n">
         <v>43</v>
@@ -2336,19 +2627,22 @@
       <c r="F85" t="n">
         <v>0.72</v>
       </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B86" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C86" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="n">
         <v>1418</v>
@@ -2356,19 +2650,22 @@
       <c r="F86" t="n">
         <v>16.0230389691252</v>
       </c>
+      <c r="G86" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B87" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="n">
         <v>1783</v>
@@ -2376,19 +2673,22 @@
       <c r="F87" t="n">
         <v>0.414123292062054</v>
       </c>
+      <c r="G87" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B88" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="n">
         <v>579</v>
@@ -2396,19 +2696,22 @@
       <c r="F88" t="n">
         <v>1.12</v>
       </c>
+      <c r="G88" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B89" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C89" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="n">
         <v>1426</v>
@@ -2416,19 +2719,22 @@
       <c r="F89" t="n">
         <v>0.274298442001784</v>
       </c>
+      <c r="G89" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B90" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="n">
         <v>95504</v>
@@ -2436,19 +2742,22 @@
       <c r="F90" t="n">
         <v>0.451345562757618</v>
       </c>
+      <c r="G90" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B91" t="s">
+        <v>64</v>
+      </c>
+      <c r="C91" t="s">
         <v>51</v>
       </c>
-      <c r="C91" t="s">
-        <v>39</v>
-      </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="n">
         <v>1017</v>
@@ -2456,19 +2765,22 @@
       <c r="F91" t="n">
         <v>0.43</v>
       </c>
+      <c r="G91" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B92" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C92" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="n">
         <v>297</v>
@@ -2476,19 +2788,22 @@
       <c r="F92" t="n">
         <v>0.49</v>
       </c>
+      <c r="G92" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B93" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="n">
         <v>131022</v>
@@ -2496,19 +2811,22 @@
       <c r="F93" t="n">
         <v>0.611086210548807</v>
       </c>
+      <c r="G93" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B94" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="n">
         <v>14194</v>
@@ -2516,19 +2834,22 @@
       <c r="F94" t="n">
         <v>0.775536590171695</v>
       </c>
+      <c r="G94" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B95" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E95" t="n">
         <v>3238</v>
@@ -2536,19 +2857,22 @@
       <c r="F95" t="n">
         <v>0.476948714588323</v>
       </c>
+      <c r="G95" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B96" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C96" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E96" t="n">
         <v>48819</v>
@@ -2556,19 +2880,22 @@
       <c r="F96" t="n">
         <v>0.61</v>
       </c>
+      <c r="G96" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B97" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="n">
         <v>73853</v>
@@ -2576,19 +2903,22 @@
       <c r="F97" t="n">
         <v>0.525027617143021</v>
       </c>
+      <c r="G97" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B98" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E98" t="n">
         <v>85148</v>
@@ -2596,19 +2926,22 @@
       <c r="F98" t="n">
         <v>0.60731376646694</v>
       </c>
+      <c r="G98" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B99" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="n">
         <v>606</v>
@@ -2616,19 +2949,22 @@
       <c r="F99" t="n">
         <v>0.405156264319917</v>
       </c>
+      <c r="G99" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B100" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E100" t="n">
         <v>38770</v>
@@ -2636,19 +2972,22 @@
       <c r="F100" t="n">
         <v>0.247533973449955</v>
       </c>
+      <c r="G100" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B101" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C101" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E101" t="n">
         <v>1467</v>
@@ -2656,19 +2995,22 @@
       <c r="F101" t="n">
         <v>1.28329292595932</v>
       </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B102" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C102" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="n">
         <v>213</v>
@@ -2676,19 +3018,22 @@
       <c r="F102" t="n">
         <v>1.028</v>
       </c>
+      <c r="G102" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B103" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C103" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="n">
         <v>448</v>
@@ -2696,19 +3041,22 @@
       <c r="F103" t="n">
         <v>1.80535391373666</v>
       </c>
+      <c r="G103" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B104" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C104" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="n">
         <v>331</v>
@@ -2716,19 +3064,22 @@
       <c r="F104" t="n">
         <v>1.02683832193004</v>
       </c>
+      <c r="G104" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B105" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="n">
         <v>40960</v>
@@ -2736,19 +3087,22 @@
       <c r="F105" t="n">
         <v>0.7</v>
       </c>
+      <c r="G105" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B106" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C106" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="n">
         <v>1842</v>
@@ -2756,19 +3110,22 @@
       <c r="F106" t="n">
         <v>0.659910423452769</v>
       </c>
+      <c r="G106" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B107" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C107" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="n">
         <v>26930</v>
@@ -2776,19 +3133,22 @@
       <c r="F107" t="n">
         <v>0.28</v>
       </c>
+      <c r="G107" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B108" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C108" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="n">
         <v>8334</v>
@@ -2796,19 +3156,22 @@
       <c r="F108" t="n">
         <v>0.4</v>
       </c>
+      <c r="G108" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B109" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C109" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="n">
         <v>108</v>
@@ -2816,19 +3179,22 @@
       <c r="F109" t="n">
         <v>0.552913082888333</v>
       </c>
+      <c r="G109" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B110" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C110" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E110" t="n">
         <v>2107</v>
@@ -2836,19 +3202,22 @@
       <c r="F110" t="n">
         <v>0.74</v>
       </c>
+      <c r="G110" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B111" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="n">
         <v>2851</v>
@@ -2856,19 +3225,22 @@
       <c r="F111" t="n">
         <v>0.29781716617335</v>
       </c>
+      <c r="G111" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B112" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E112" t="n">
         <v>7017</v>
@@ -2876,19 +3248,22 @@
       <c r="F112" t="n">
         <v>0.437069446589129</v>
       </c>
+      <c r="G112" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B113" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C113" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="n">
         <v>206</v>
@@ -2896,19 +3271,22 @@
       <c r="F113" t="n">
         <v>0.55</v>
       </c>
+      <c r="G113" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B114" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C114" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E114" t="n">
         <v>129</v>
@@ -2916,19 +3294,22 @@
       <c r="F114" t="n">
         <v>0.41</v>
       </c>
+      <c r="G114" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B115" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C115" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="n">
         <v>1389</v>
@@ -2936,19 +3317,22 @@
       <c r="F115" t="n">
         <v>0.21</v>
       </c>
+      <c r="G115" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B116" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C116" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="n">
         <v>150</v>
@@ -2956,19 +3340,22 @@
       <c r="F116" t="n">
         <v>0.502145397270552</v>
       </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B117" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C117" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E117" t="n">
         <v>40</v>
@@ -2976,19 +3363,22 @@
       <c r="F117" t="n">
         <v>0.694358449397716</v>
       </c>
+      <c r="G117" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B118" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C118" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="n">
         <v>262.8</v>
@@ -2996,19 +3386,22 @@
       <c r="F118" t="n">
         <v>0.267333139978601</v>
       </c>
+      <c r="G118" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B119" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C119" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="n">
         <v>165</v>
@@ -3016,19 +3409,22 @@
       <c r="F119" t="n">
         <v>0.826236447190915</v>
       </c>
+      <c r="G119" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B120" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C120" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E120" t="n">
         <v>43</v>
@@ -3036,19 +3432,22 @@
       <c r="F120" t="n">
         <v>0.72</v>
       </c>
+      <c r="G120" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B121" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C121" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="n">
         <v>2248</v>
@@ -3056,19 +3455,22 @@
       <c r="F121" t="n">
         <v>141.902218912791</v>
       </c>
+      <c r="G121" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B122" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="n">
         <v>2470</v>
@@ -3076,19 +3478,22 @@
       <c r="F122" t="n">
         <v>0.475407724962301</v>
       </c>
+      <c r="G122" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B123" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E123" t="n">
         <v>305</v>
@@ -3096,19 +3501,22 @@
       <c r="F123" t="n">
         <v>0.74155803726546</v>
       </c>
+      <c r="G123" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B124" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C124" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="n">
         <v>5500</v>
@@ -3116,19 +3524,22 @@
       <c r="F124" t="n">
         <v>0.558484749533196</v>
       </c>
+      <c r="G124" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B125" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C125" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="n">
         <v>1768.60784313725</v>
@@ -3136,19 +3547,22 @@
       <c r="F125" t="n">
         <v>0.627304062167231</v>
       </c>
+      <c r="G125" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B126" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C126" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="n">
         <v>132</v>
@@ -3156,19 +3570,22 @@
       <c r="F126" t="n">
         <v>0.313477165430925</v>
       </c>
+      <c r="G126" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B127" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C127" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="n">
         <v>4844.62162162162</v>
@@ -3176,19 +3593,22 @@
       <c r="F127" t="n">
         <v>0.449406296434994</v>
       </c>
+      <c r="G127" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B128" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C128" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="n">
         <v>630</v>
@@ -3196,19 +3616,22 @@
       <c r="F128" t="n">
         <v>0.551349884683494</v>
       </c>
+      <c r="G128" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B129" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C129" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="n">
         <v>187</v>
@@ -3216,19 +3639,22 @@
       <c r="F129" t="n">
         <v>0.680616851692283</v>
       </c>
+      <c r="G129" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B130" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C130" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="n">
         <v>792</v>
@@ -3236,19 +3662,22 @@
       <c r="F130" t="n">
         <v>0.802478361653827</v>
       </c>
+      <c r="G130" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B131" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C131" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E131" t="n">
         <v>107</v>
@@ -3256,19 +3685,22 @@
       <c r="F131" t="n">
         <v>0.5</v>
       </c>
+      <c r="G131" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B132" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C132" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="n">
         <v>267</v>
@@ -3276,19 +3708,22 @@
       <c r="F132" t="n">
         <v>0.749</v>
       </c>
+      <c r="G132" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B133" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C133" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="n">
         <v>691</v>
@@ -3296,19 +3731,22 @@
       <c r="F133" t="n">
         <v>0.49</v>
       </c>
+      <c r="G133" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B134" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C134" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="n">
         <v>710</v>
@@ -3316,19 +3754,22 @@
       <c r="F134" t="n">
         <v>0.720162244007465</v>
       </c>
+      <c r="G134" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B135" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C135" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="n">
         <v>161</v>
@@ -3336,19 +3777,22 @@
       <c r="F135" t="n">
         <v>1.06</v>
       </c>
+      <c r="G135" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B136" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C136" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="n">
         <v>155</v>
@@ -3356,19 +3800,22 @@
       <c r="F136" t="n">
         <v>1.48298628325995</v>
       </c>
+      <c r="G136" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B137" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C137" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="n">
         <v>90</v>
@@ -3376,19 +3823,22 @@
       <c r="F137" t="n">
         <v>1.06</v>
       </c>
+      <c r="G137" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B138" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C138" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E138" t="n">
         <v>153</v>
@@ -3396,19 +3846,22 @@
       <c r="F138" t="n">
         <v>1.29620795729828</v>
       </c>
+      <c r="G138" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B139" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C139" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="n">
         <v>1749</v>
@@ -3416,19 +3869,22 @@
       <c r="F139" t="n">
         <v>0.683</v>
       </c>
+      <c r="G139" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B140" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C140" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="n">
         <v>63</v>
@@ -3436,19 +3892,22 @@
       <c r="F140" t="n">
         <v>1.33367912182804</v>
       </c>
+      <c r="G140" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B141" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C141" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E141" t="n">
         <v>80</v>
@@ -3456,19 +3915,22 @@
       <c r="F141" t="n">
         <v>1.87824832235162</v>
       </c>
+      <c r="G141" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B142" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C142" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="n">
         <v>165390</v>
@@ -3476,19 +3938,22 @@
       <c r="F142" t="n">
         <v>0.224796341783965</v>
       </c>
+      <c r="G142" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B143" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C143" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E143" t="n">
         <v>2335</v>
@@ -3496,19 +3961,22 @@
       <c r="F143" t="n">
         <v>0.73</v>
       </c>
+      <c r="G143" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B144" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C144" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="n">
         <v>40647</v>
@@ -3516,19 +3984,22 @@
       <c r="F144" t="n">
         <v>0.74</v>
       </c>
+      <c r="G144" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B145" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C145" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="n">
         <v>10741</v>
@@ -3536,19 +4007,22 @@
       <c r="F145" t="n">
         <v>0.79</v>
       </c>
+      <c r="G145" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B146" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C146" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="n">
         <v>10555</v>
@@ -3556,19 +4030,22 @@
       <c r="F146" t="n">
         <v>0.65</v>
       </c>
+      <c r="G146" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B147" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C147" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="n">
         <v>10462</v>
@@ -3576,19 +4053,22 @@
       <c r="F147" t="n">
         <v>0.344713467291244</v>
       </c>
+      <c r="G147" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B148" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C148" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E148" t="n">
         <v>4961</v>
@@ -3596,19 +4076,22 @@
       <c r="F148" t="n">
         <v>0.39</v>
       </c>
+      <c r="G148" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B149" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C149" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="n">
         <v>42000</v>
@@ -3616,19 +4099,22 @@
       <c r="F149" t="n">
         <v>0.33</v>
       </c>
+      <c r="G149" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B150" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C150" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="n">
         <v>2339</v>
@@ -3636,19 +4122,22 @@
       <c r="F150" t="n">
         <v>0.291304914619255</v>
       </c>
+      <c r="G150" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B151" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C151" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E151" t="n">
         <v>398236</v>
@@ -3656,19 +4145,22 @@
       <c r="F151" t="n">
         <v>0.081613639367673</v>
       </c>
+      <c r="G151" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B152" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C152" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E152" t="n">
         <v>79883</v>
@@ -3676,19 +4168,22 @@
       <c r="F152" t="n">
         <v>0.32</v>
       </c>
+      <c r="G152" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B153" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C153" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="n">
         <v>58</v>
@@ -3696,19 +4191,22 @@
       <c r="F153" t="n">
         <v>0.63</v>
       </c>
+      <c r="G153" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B154" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C154" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E154" t="n">
         <v>150</v>
@@ -3716,19 +4214,22 @@
       <c r="F154" t="n">
         <v>0.588922500089028</v>
       </c>
+      <c r="G154" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B155" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C155" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="n">
         <v>129</v>
@@ -3736,19 +4237,22 @@
       <c r="F155" t="n">
         <v>0.428069989172414</v>
       </c>
+      <c r="G155" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B156" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C156" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="n">
         <v>1180</v>
@@ -3756,19 +4260,22 @@
       <c r="F156" t="n">
         <v>0.219</v>
       </c>
+      <c r="G156" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B157" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C157" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E157" t="n">
         <v>45</v>
@@ -3776,19 +4283,22 @@
       <c r="F157" t="n">
         <v>1.05</v>
       </c>
+      <c r="G157" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B158" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C158" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="n">
         <v>709</v>
@@ -3796,19 +4306,22 @@
       <c r="F158" t="n">
         <v>0.285564088076364</v>
       </c>
+      <c r="G158" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B159" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C159" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="n">
         <v>1010</v>
@@ -3816,19 +4329,22 @@
       <c r="F159" t="n">
         <v>0.497341393106208</v>
       </c>
+      <c r="G159" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B160" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C160" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E160" t="n">
         <v>472</v>
@@ -3836,19 +4352,22 @@
       <c r="F160" t="n">
         <v>1.0425</v>
       </c>
+      <c r="G160" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B161" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="n">
         <v>22581</v>
@@ -3856,19 +4375,22 @@
       <c r="F161" t="n">
         <v>0.534477445407618</v>
       </c>
+      <c r="G161" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B162" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E162" t="n">
         <v>585</v>
@@ -3876,19 +4398,22 @@
       <c r="F162" t="n">
         <v>0.379253330581811</v>
       </c>
+      <c r="G162" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B163" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C163" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="n">
         <v>17268</v>
@@ -3896,19 +4421,22 @@
       <c r="F163" t="n">
         <v>0.327357935565234</v>
       </c>
+      <c r="G163" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B164" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C164" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="n">
         <v>1306</v>
@@ -3916,19 +4444,22 @@
       <c r="F164" t="n">
         <v>0.33794640941021</v>
       </c>
+      <c r="G164" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B165" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C165" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E165" t="n">
         <v>287</v>
@@ -3936,19 +4467,22 @@
       <c r="F165" t="n">
         <v>1.4</v>
       </c>
+      <c r="G165" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B166" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C166" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="n">
         <v>971</v>
@@ -3956,19 +4490,22 @@
       <c r="F166" t="n">
         <v>0.31</v>
       </c>
+      <c r="G166" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B167" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C167" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="n">
         <v>5095</v>
@@ -3976,19 +4513,22 @@
       <c r="F167" t="n">
         <v>0.56</v>
       </c>
+      <c r="G167" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B168" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C168" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="n">
         <v>700</v>
@@ -3996,19 +4536,22 @@
       <c r="F168" t="n">
         <v>0.6</v>
       </c>
+      <c r="G168" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B169" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C169" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="n">
         <v>256</v>
@@ -4016,19 +4559,22 @@
       <c r="F169" t="n">
         <v>0.960273324680667</v>
       </c>
+      <c r="G169" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B170" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C170" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E170" t="n">
         <v>2179</v>
@@ -4036,19 +4582,22 @@
       <c r="F170" t="n">
         <v>0.795305805504054</v>
       </c>
+      <c r="G170" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B171" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C171" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="n">
         <v>494</v>
@@ -4056,19 +4605,22 @@
       <c r="F171" t="n">
         <v>0.787</v>
       </c>
+      <c r="G171" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B172" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C172" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="n">
         <v>18498</v>
@@ -4076,19 +4628,22 @@
       <c r="F172" t="n">
         <v>0.396397009242233</v>
       </c>
+      <c r="G172" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B173" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C173" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="n">
         <v>355</v>
@@ -4096,19 +4651,22 @@
       <c r="F173" t="n">
         <v>1.0184632125844</v>
       </c>
+      <c r="G173" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B174" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C174" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="n">
         <v>5583</v>
@@ -4116,19 +4674,22 @@
       <c r="F174" t="n">
         <v>0.594408507446023</v>
       </c>
+      <c r="G174" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B175" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C175" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="n">
         <v>1421</v>
@@ -4136,19 +4697,22 @@
       <c r="F175" t="n">
         <v>0.815824360392341</v>
       </c>
+      <c r="G175" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B176" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C176" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="n">
         <v>465</v>
@@ -4156,19 +4720,22 @@
       <c r="F176" t="n">
         <v>0.856202529844653</v>
       </c>
+      <c r="G176" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B177" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C177" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E177" t="n">
         <v>1764</v>
@@ -4176,19 +4743,22 @@
       <c r="F177" t="n">
         <v>0.53</v>
       </c>
+      <c r="G177" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B178" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C178" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="n">
         <v>2238</v>
@@ -4196,19 +4766,22 @@
       <c r="F178" t="n">
         <v>0.808100333066617</v>
       </c>
+      <c r="G178" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B179" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C179" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E179" t="n">
         <v>3931</v>
@@ -4216,19 +4789,22 @@
       <c r="F179" t="n">
         <v>0.212428961584413</v>
       </c>
+      <c r="G179" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B180" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C180" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="n">
         <v>37195</v>
@@ -4236,19 +4812,22 @@
       <c r="F180" t="n">
         <v>0.244</v>
       </c>
+      <c r="G180" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B181" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C181" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E181" t="n">
         <v>1937</v>
@@ -4256,19 +4835,22 @@
       <c r="F181" t="n">
         <v>0.727461339178928</v>
       </c>
+      <c r="G181" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B182" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C182" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="n">
         <v>21592</v>
@@ -4276,19 +4858,22 @@
       <c r="F182" t="n">
         <v>0.52521987704575</v>
       </c>
+      <c r="G182" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B183" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C183" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="n">
         <v>4578</v>
@@ -4296,19 +4881,22 @@
       <c r="F183" t="n">
         <v>0.357826156665872</v>
       </c>
+      <c r="G183" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B184" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C184" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="n">
         <v>39798</v>
@@ -4316,19 +4904,22 @@
       <c r="F184" t="n">
         <v>0.51</v>
       </c>
+      <c r="G184" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B185" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C185" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="n">
         <v>9794</v>
@@ -4336,19 +4927,22 @@
       <c r="F185" t="n">
         <v>0.537428588925061</v>
       </c>
+      <c r="G185" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B186" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C186" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="n">
         <v>15283</v>
@@ -4356,19 +4950,22 @@
       <c r="F186" t="n">
         <v>0.28</v>
       </c>
+      <c r="G186" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B187" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C187" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E187" t="n">
         <v>396</v>
@@ -4376,19 +4973,22 @@
       <c r="F187" t="n">
         <v>1.72178330787197</v>
       </c>
+      <c r="G187" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B188" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C188" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="n">
         <v>2975</v>
@@ -4396,19 +4996,22 @@
       <c r="F188" t="n">
         <v>0.342739648294633</v>
       </c>
+      <c r="G188" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B189" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C189" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="n">
         <v>76375</v>
@@ -4416,19 +5019,22 @@
       <c r="F189" t="n">
         <v>0.41</v>
       </c>
+      <c r="G189" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B190" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C190" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="n">
         <v>359</v>
@@ -4436,19 +5042,22 @@
       <c r="F190" t="n">
         <v>1.52491232658942</v>
       </c>
+      <c r="G190" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B191" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C191" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="n">
         <v>513</v>
@@ -4456,19 +5065,22 @@
       <c r="F191" t="n">
         <v>1.033</v>
       </c>
+      <c r="G191" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B192" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C192" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="n">
         <v>1817</v>
@@ -4476,19 +5088,22 @@
       <c r="F192" t="n">
         <v>0.558</v>
       </c>
+      <c r="G192" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B193" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C193" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="n">
         <v>489728.403587444</v>
@@ -4496,19 +5111,22 @@
       <c r="F193" t="n">
         <v>0.126965213819723</v>
       </c>
+      <c r="G193" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B194" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C194" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E194" t="n">
         <v>118899.272727273</v>
@@ -4516,19 +5134,22 @@
       <c r="F194" t="n">
         <v>0.367067948190118</v>
       </c>
+      <c r="G194" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B195" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C195" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="n">
         <v>452941.776978417</v>
@@ -4536,19 +5157,22 @@
       <c r="F195" t="n">
         <v>0.274786837771112</v>
       </c>
+      <c r="G195" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B196" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C196" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E196" t="n">
         <v>23361.3869731801</v>
@@ -4556,19 +5180,22 @@
       <c r="F196" t="n">
         <v>0.361989403738803</v>
       </c>
+      <c r="G196" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B197" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C197" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="n">
         <v>46882</v>
@@ -4576,19 +5203,22 @@
       <c r="F197" t="n">
         <v>0.331438410969808</v>
       </c>
+      <c r="G197" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B198" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C198" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="n">
         <v>10908</v>
@@ -4596,19 +5226,22 @@
       <c r="F198" t="n">
         <v>0.34</v>
       </c>
+      <c r="G198" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B199" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C199" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="n">
         <v>34271</v>
@@ -4616,19 +5249,22 @@
       <c r="F199" t="n">
         <v>0.32</v>
       </c>
+      <c r="G199" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B200" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C200" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="n">
         <v>5577</v>
@@ -4636,19 +5272,22 @@
       <c r="F200" t="n">
         <v>0.414</v>
       </c>
+      <c r="G200" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B201" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C201" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="n">
         <v>26798</v>
@@ -4656,19 +5295,22 @@
       <c r="F201" t="n">
         <v>0.657267854168951</v>
       </c>
+      <c r="G201" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B202" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C202" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E202" t="n">
         <v>7658</v>
@@ -4676,19 +5318,22 @@
       <c r="F202" t="n">
         <v>0.582727593455239</v>
       </c>
+      <c r="G202" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B203" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C203" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="n">
         <v>2911</v>
@@ -4696,19 +5341,22 @@
       <c r="F203" t="n">
         <v>0.54</v>
       </c>
+      <c r="G203" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B204" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C204" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E204" t="n">
         <v>3874</v>
@@ -4716,19 +5364,22 @@
       <c r="F204" t="n">
         <v>0.514392845984467</v>
       </c>
+      <c r="G204" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B205" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C205" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="n">
         <v>140351</v>
@@ -4736,19 +5387,22 @@
       <c r="F205" t="n">
         <v>0.206003781346833</v>
       </c>
+      <c r="G205" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B206" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C206" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E206" t="n">
         <v>11837</v>
@@ -4756,19 +5410,22 @@
       <c r="F206" t="n">
         <v>0.33312721948317</v>
       </c>
+      <c r="G206" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B207" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C207" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="n">
         <v>4578</v>
@@ -4776,19 +5433,22 @@
       <c r="F207" t="n">
         <v>0.357826156665872</v>
       </c>
+      <c r="G207" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B208" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C208" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="n">
         <v>9794</v>
@@ -4796,19 +5456,22 @@
       <c r="F208" t="n">
         <v>0.537428588925061</v>
       </c>
+      <c r="G208" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B209" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C209" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="n">
         <v>1515</v>
@@ -4816,19 +5479,22 @@
       <c r="F209" t="n">
         <v>0.66</v>
       </c>
+      <c r="G209" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B210" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C210" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D210" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E210" t="n">
         <v>2200</v>
@@ -4836,19 +5502,22 @@
       <c r="F210" t="n">
         <v>1.04804242371234</v>
       </c>
+      <c r="G210" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B211" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C211" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="n">
         <v>7462</v>
@@ -4856,19 +5525,22 @@
       <c r="F211" t="n">
         <v>0.313</v>
       </c>
+      <c r="G211" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B212" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C212" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="n">
         <v>581</v>
@@ -4876,19 +5548,22 @@
       <c r="F212" t="n">
         <v>0.64</v>
       </c>
+      <c r="G212" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B213" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C213" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D213" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E213" t="n">
         <v>5150</v>
@@ -4896,19 +5571,22 @@
       <c r="F213" t="n">
         <v>0.477351318194384</v>
       </c>
+      <c r="G213" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B214" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C214" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="n">
         <v>103859</v>
@@ -4916,19 +5594,22 @@
       <c r="F214" t="n">
         <v>0.118615166152095</v>
       </c>
+      <c r="G214" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B215" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C215" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D215" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E215" t="n">
         <v>7862</v>
@@ -4936,19 +5617,22 @@
       <c r="F215" t="n">
         <v>0.150209959256755</v>
       </c>
+      <c r="G215" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B216" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C216" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216" t="n">
         <v>21983</v>
@@ -4956,19 +5640,22 @@
       <c r="F216" t="n">
         <v>0.226636937045465</v>
       </c>
+      <c r="G216" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B217" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C217" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D217" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E217" t="n">
         <v>37856</v>
@@ -4976,19 +5663,22 @@
       <c r="F217" t="n">
         <v>0.210864824345744</v>
       </c>
+      <c r="G217" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B218" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C218" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E218" t="n">
         <v>29220</v>
@@ -4996,19 +5686,22 @@
       <c r="F218" t="n">
         <v>0.208624455838325</v>
       </c>
+      <c r="G218" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B219" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C219" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D219" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E219" t="n">
         <v>91312</v>
@@ -5016,19 +5709,22 @@
       <c r="F219" t="n">
         <v>0.176985258772018</v>
       </c>
+      <c r="G219" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B220" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C220" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E220" t="n">
         <v>25952</v>
@@ -5036,19 +5732,22 @@
       <c r="F220" t="n">
         <v>0.445760139095024</v>
       </c>
+      <c r="G220" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B221" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C221" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D221" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E221" t="n">
         <v>814</v>
@@ -5056,19 +5755,22 @@
       <c r="F221" t="n">
         <v>0.52</v>
       </c>
+      <c r="G221" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B222" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C222" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E222" t="n">
         <v>1006</v>
@@ -5076,19 +5778,22 @@
       <c r="F222" t="n">
         <v>0.48</v>
       </c>
+      <c r="G222" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B223" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C223" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E223" t="n">
         <v>6280</v>
@@ -5096,19 +5801,22 @@
       <c r="F223" t="n">
         <v>0.235910471619501</v>
       </c>
+      <c r="G223" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B224" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C224" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E224" t="n">
         <v>5525</v>
@@ -5116,19 +5824,22 @@
       <c r="F224" t="n">
         <v>0.381068419799889</v>
       </c>
+      <c r="G224" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B225" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C225" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E225" t="n">
         <v>3951</v>
@@ -5136,19 +5847,22 @@
       <c r="F225" t="n">
         <v>0.459545625702131</v>
       </c>
+      <c r="G225" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B226" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C226" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D226" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E226" t="n">
         <v>75</v>
@@ -5156,19 +5870,22 @@
       <c r="F226" t="n">
         <v>0.71014083110324</v>
       </c>
+      <c r="G226" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B227" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C227" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D227" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E227" t="n">
         <v>40</v>
@@ -5176,19 +5893,22 @@
       <c r="F227" t="n">
         <v>0.694358449397716</v>
       </c>
+      <c r="G227" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B228" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C228" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D228" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E228" t="n">
         <v>54.2</v>
@@ -5196,19 +5916,22 @@
       <c r="F228" t="n">
         <v>0.522935719625723</v>
       </c>
+      <c r="G228" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B229" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C229" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D229" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E229" t="n">
         <v>110</v>
@@ -5216,19 +5939,22 @@
       <c r="F229" t="n">
         <v>1.01192885125388</v>
       </c>
+      <c r="G229" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B230" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C230" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D230" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E230" t="n">
         <v>2599</v>
@@ -5236,19 +5962,22 @@
       <c r="F230" t="n">
         <v>131.979077006548</v>
       </c>
+      <c r="G230" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B231" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C231" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D231" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E231" t="n">
         <v>2123</v>
@@ -5256,19 +5985,22 @@
       <c r="F231" t="n">
         <v>0.445586497215221</v>
       </c>
+      <c r="G231" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B232" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C232" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D232" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E232" t="n">
         <v>776</v>
@@ -5276,19 +6008,22 @@
       <c r="F232" t="n">
         <v>0.484689299268781</v>
       </c>
+      <c r="G232" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B233" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C233" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D233" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E233" t="n">
         <v>4117</v>
@@ -5296,19 +6031,22 @@
       <c r="F233" t="n">
         <v>0.368219424949417</v>
       </c>
+      <c r="G233" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B234" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C234" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D234" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E234" t="n">
         <v>2443</v>
@@ -5316,19 +6054,22 @@
       <c r="F234" t="n">
         <v>0.261858401346061</v>
       </c>
+      <c r="G234" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B235" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C235" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D235" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E235" t="n">
         <v>4962</v>
@@ -5336,19 +6077,22 @@
       <c r="F235" t="n">
         <v>0.367684468031743</v>
       </c>
+      <c r="G235" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B236" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C236" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D236" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E236" t="n">
         <v>2733.19607843137</v>
@@ -5356,19 +6100,22 @@
       <c r="F236" t="n">
         <v>0.554009776896852</v>
       </c>
+      <c r="G236" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B237" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C237" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D237" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E237" t="n">
         <v>217</v>
@@ -5376,19 +6123,22 @@
       <c r="F237" t="n">
         <v>0.244722929840138</v>
       </c>
+      <c r="G237" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B238" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C238" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D238" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E238" t="n">
         <v>5072.56756756757</v>
@@ -5396,25 +6146,31 @@
       <c r="F238" t="n">
         <v>0.37135037149642</v>
       </c>
+      <c r="G238" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B239" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C239" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D239" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E239" t="n">
         <v>1260</v>
       </c>
       <c r="F239" t="n">
         <v>0.389863242266119</v>
+      </c>
+      <c r="G239" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
